--- a/Amazon/Integration Test Case.xlsx
+++ b/Amazon/Integration Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1C301-62D4-495D-9784-AE4F549E6DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAEA3A-6953-4DAC-9439-9DD575B7CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B42E77AA-C584-41AB-8CCC-AB71297562F6}"/>
   </bookViews>
@@ -63,18 +63,9 @@
     <t xml:space="preserve">Click on Sign in option </t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>Enter valid Email and Password and click on login Btn</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>Click on the product " Samsung Galaxy 23"</t>
   </si>
   <si>
@@ -84,40 +75,19 @@
     <t xml:space="preserve">Searched Product Page should be displayed </t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>Click on Add to Cart</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Cart Logo </t>
   </si>
   <si>
-    <t>8.</t>
-  </si>
-  <si>
     <t>Click on Proceed to buy link</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>Enter  the valid Address and Payment method</t>
   </si>
   <si>
     <t xml:space="preserve">Address and Payment page  should be displayed </t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>1 .</t>
-  </si>
-  <si>
-    <t>2 .</t>
   </si>
   <si>
     <t xml:space="preserve">1.Cart Page should be displayed 
@@ -136,6 +106,125 @@
   <si>
     <t xml:space="preserve">Click on Search Text field and Enter the product name "Samsung Galaxy " 
 and click on search logo. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Author By </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          :   Aniket Rathod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reviewed By  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     :   Nikhil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reviewed Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   :   1 February 2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approval Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    :   4  February 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
   </si>
   <si>
     <r>
@@ -290,96 +379,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : Add to cart from user1 .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Author By </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">          :   Aniket Rathod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reviewed By  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     :   Nikhil
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reviewed Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   :   1 February 2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Approval Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    :   4  February 2025</t>
+      <t xml:space="preserve"> : Buy the product.</t>
     </r>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -441,9 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -762,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70907BC4-EF53-4724-9D31-CF16D7CCF09B}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,9 +774,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -800,8 +797,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
+      <c r="A6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -812,21 +809,21 @@
     </row>
     <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -834,32 +831,32 @@
     </row>
     <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -867,32 +864,32 @@
     </row>
     <row r="12" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -900,18 +897,18 @@
     </row>
     <row r="15" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon/Integration Test Case.xlsx
+++ b/Amazon/Integration Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FAEA3A-6953-4DAC-9439-9DD575B7CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB558E0-EECC-46C0-BE5A-470A884B7F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B42E77AA-C584-41AB-8CCC-AB71297562F6}"/>
   </bookViews>
@@ -420,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,21 +428,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,154 +776,155 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="52.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
